--- a/spliced/walkingToRunning/2023-03-24_10-04-36/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-24_10-04-36/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.670226090791241</v>
+        <v>1.236815226788552</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.091667162661444</v>
+        <v>0.1414764750477494</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.041793617981188</v>
+        <v>-1.8235920880804</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.8640256433297839</v>
+        <v>0.1625524869817767</v>
       </c>
       <c r="B3" t="n">
-        <v>4.650747886556637</v>
+        <v>-0.4422002719431526</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.559826216160883</v>
+        <v>-1.004146238825968</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-4.644820244896485</v>
+        <v>-0.740915227015286</v>
       </c>
       <c r="B4" t="n">
-        <v>1.258370885785854</v>
+        <v>-0.7551234747400304</v>
       </c>
       <c r="C4" t="n">
-        <v>4.646750097243193</v>
+        <v>0.4171670004232076</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.00715031529102</v>
+        <v>-0.2266252960590348</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9142340319046287</v>
+        <v>0.2213748296759771</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1285482684508406</v>
+        <v>0.3229828062436459</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.070978374670706</v>
+        <v>1.314678312926899</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.068573569619734</v>
+        <v>0.2296500253361486</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.954386662173812</v>
+        <v>-2.454690778492302</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.232810453863329</v>
+        <v>2.428599177606864</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.969135909680511</v>
+        <v>-2.602694208258827</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.358391224153779</v>
+        <v>-1.646401987960016</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.146585134480858</v>
+        <v>-6.127065071206991</v>
       </c>
       <c r="B8" t="n">
-        <v>4.603992654787663</v>
+        <v>-1.783086014899204</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.694319920823923</v>
+        <v>3.508786747787188</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-2.67855012890519</v>
+        <v>-8.945596145478319</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.006855047301741</v>
+        <v>-0.7774270279517974</v>
       </c>
       <c r="C9" t="n">
-        <v>4.836543642132488</v>
+        <v>0.9836971909794454</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-4.105620122113728</v>
+        <v>-0.7768943598925588</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1927078646540217</v>
+        <v>7.095907495511296</v>
       </c>
       <c r="C10" t="n">
-        <v>5.513353426724837</v>
+        <v>1.043390788779353</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4.037716316071557</v>
+        <v>3.791030067679126</v>
       </c>
       <c r="B11" t="n">
-        <v>6.551475903845644</v>
+        <v>0.2994813682227342</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.912516972876529</v>
+        <v>0.2082552271494167</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.804468214906632</v>
+        <v>9.398914166633652</v>
       </c>
       <c r="B12" t="n">
-        <v>-10.66588149165471</v>
+        <v>5.85367529281717</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.3203558021823608</v>
+        <v>1.256292052073589</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.302202979460453</v>
+        <v>2.736446717322321</v>
       </c>
       <c r="B13" t="n">
-        <v>-6.605446433389432</v>
+        <v>4.548278085443381</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.056325257219221</v>
+        <v>1.452632268533013</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.4646995685599808</v>
+        <v>-4.778863546864109</v>
       </c>
       <c r="B14" t="n">
-        <v>2.818570803332821</v>
+        <v>2.982931879182525</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.798724206078129</v>
+        <v>1.427496227997028</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-2.216733415592599</v>
+        <v>-5.840554707887152</v>
       </c>
       <c r="B15" t="n">
-        <v>2.257024671857711</v>
+        <v>8.552980871390053</v>
       </c>
       <c r="C15" t="n">
-        <v>2.481046343481329</v>
+        <v>0.4491637055052786</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-5.183710110898026</v>
+        <v>-1.987136993976585</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9670352584478963</v>
+        <v>6.254284772849164</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.899687969131927</v>
+        <v>0.0975735527000729</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.2213500382884126</v>
+        <v>5.379759021152736</v>
       </c>
       <c r="B17" t="n">
-        <v>12.56045694066983</v>
+        <v>0.9356099742137876</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.443670114144594</v>
+        <v>0.3650748662601239</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.057937742069067</v>
+        <v>7.268190617395588</v>
       </c>
       <c r="B18" t="n">
-        <v>2.035143078557713</v>
+        <v>2.87724845140975</v>
       </c>
       <c r="C18" t="n">
-        <v>-4.283037379877456</v>
+        <v>-0.6388733892251259</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.674169801323628</v>
+        <v>-1.160767073268145</v>
       </c>
       <c r="B19" t="n">
-        <v>-8.228973205515869</v>
+        <v>1.634010728621313</v>
       </c>
       <c r="C19" t="n">
-        <v>-3.825583894521211</v>
+        <v>-0.1062023623889485</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.125470403803903</v>
+        <v>-4.282147233849325</v>
       </c>
       <c r="B20" t="n">
-        <v>-5.715961506824572</v>
+        <v>2.761744960254463</v>
       </c>
       <c r="C20" t="n">
-        <v>0.163591752778643</v>
+        <v>3.233038336433305</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-1.817326214139903</v>
+        <v>-2.985469795220721</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.043612650490731</v>
+        <v>12.98016068161699</v>
       </c>
       <c r="C21" t="n">
-        <v>3.705052798946995</v>
+        <v>-0.2386761236664393</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.1446846399875339</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-8.862621700526844</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6794372058862079</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10.43086243307355</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-2.569769633526841</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.2679488501011921</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-1.647490507719652</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.485880149121367</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8528425255358673</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-5.678511316413173</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.6430025874384664</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.429980419329525</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.9913829153045866</v>
+      </c>
+      <c r="B26" t="n">
+        <v>14.39225333415911</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.904873143758213</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1.34357805300924</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-3.072673494452783</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.8158495126181</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>4.670226090791241</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-2.091667162661444</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-4.041793617981188</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.8640256433297839</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4.650747886556637</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.559826216160883</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-4.644820244896485</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.258370885785854</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.646750097243193</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-1.00715031529102</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.9142340319046287</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.1285482684508406</v>
       </c>
     </row>
   </sheetData>
